--- a/src/main/resources/report/template_report_list_of_orders.xlsx
+++ b/src/main/resources/report/template_report_list_of_orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVA\GoodsPartner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC18808-4BBE-41F7-9E31-A87A93ED4810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3238A2-B3E9-44B0-BA63-29480FF9BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-ru-UA,1]dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +145,15 @@
       <i/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -385,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +435,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,9 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +768,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,17 +783,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="15"/>
+    </row>
     <row r="3" spans="1:7" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>0</v>
@@ -826,14 +838,14 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="2"/>
     </row>
   </sheetData>
